--- a/compare-two-excel-files-with-flast-app/input_file2.xlsx
+++ b/compare-two-excel-files-with-flast-app/input_file2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinoth-workspace\Python\python\compare-two-excel-files-with-flast-app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A237053-BE18-410A-86E4-17756F44BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9795"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,8 +26,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="artbest" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="artbest" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr sourceFile="D:\DevProg\xampp\htdocs\cyberhelden.widilo\dbftophp\dbf2csv\DAT\artbest.csv" comma="1">
       <textFields count="22">
         <textField/>
@@ -49,7 +55,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="artbest1" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="artbest1" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr prompt="0" sourceFile="D:\DevProg\xampp\htdocs\cyberhelden.widilo\dbftophp\dbf2csv\DAT\artbest.csv" comma="1">
       <textFields count="22">
         <textField/>
@@ -81,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SKU</t>
   </si>
@@ -144,13 +150,16 @@
   </si>
   <si>
     <t>B 19</t>
+  </si>
+  <si>
+    <t>B20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,21 +192,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="artbest_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="artbest_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +252,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -269,6 +286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,9 +321,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,20 +497,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,39 +518,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -539,15 +558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -555,15 +574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -571,15 +590,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -587,15 +606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -603,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -611,15 +630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -627,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -635,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -643,12 +662,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -657,24 +684,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
